--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kevin\Code\zmk-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB832DF-7CC7-4101-9A84-850A9A297216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA863A-483E-4063-8154-9AA9CC0737FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="4935" windowWidth="43200" windowHeight="17145" xr2:uid="{86B09F24-D561-4E71-AA8E-B26A7FDADDC6}"/>
+    <workbookView xWindow="4935" yWindow="4935" windowWidth="23865" windowHeight="17145" xr2:uid="{86B09F24-D561-4E71-AA8E-B26A7FDADDC6}"/>
     <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{439D6C08-8549-4FEE-B020-8BDFC516D8C4}"/>
     <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="4" xr2:uid="{A187CE12-F0FD-4371-9DA3-865F4351A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="7" r:id="rId1"/>
     <sheet name="Engram" sheetId="1" r:id="rId2"/>
-    <sheet name="Qwerty" sheetId="3" r:id="rId3"/>
-    <sheet name="Cursor" sheetId="11" r:id="rId4"/>
-    <sheet name="Number" sheetId="10" r:id="rId5"/>
-    <sheet name="Function" sheetId="12" r:id="rId6"/>
-    <sheet name="Symbol" sheetId="13" r:id="rId7"/>
-    <sheet name="Vim" sheetId="6" r:id="rId8"/>
-    <sheet name="Vimish" sheetId="8" r:id="rId9"/>
-    <sheet name="VimSymbol" sheetId="9" r:id="rId10"/>
+    <sheet name="EngramCursor" sheetId="11" r:id="rId3"/>
+    <sheet name="Qwerty (2)" sheetId="16" r:id="rId4"/>
+    <sheet name="QwertySymbol" sheetId="15" r:id="rId5"/>
+    <sheet name="Qwerty" sheetId="3" r:id="rId6"/>
+    <sheet name="QwertyCursor" sheetId="14" r:id="rId7"/>
+    <sheet name="Number" sheetId="10" r:id="rId8"/>
+    <sheet name="Function" sheetId="12" r:id="rId9"/>
+    <sheet name="EngramSymbol" sheetId="13" r:id="rId10"/>
+    <sheet name="Vim" sheetId="6" r:id="rId11"/>
+    <sheet name="Vimish" sheetId="8" r:id="rId12"/>
+    <sheet name="VimSymbol" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="226">
   <si>
     <t>F1</t>
   </si>
@@ -438,30 +441,6 @@
     <t>BSPC</t>
   </si>
   <si>
-    <t>Select
-None</t>
-  </si>
-  <si>
-    <t>Extend
-Line</t>
-  </si>
-  <si>
-    <t>Extend
-Word</t>
-  </si>
-  <si>
-    <t>Select
-All</t>
-  </si>
-  <si>
-    <t>Select
-Line</t>
-  </si>
-  <si>
-    <t>Select
-Word</t>
-  </si>
-  <si>
     <t>Win</t>
   </si>
   <si>
@@ -641,7 +620,7 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Cursor</t>
+      <t>Number</t>
     </r>
     <r>
       <rPr>
@@ -660,18 +639,471 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
+      <t>Del</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Function
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Esc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Space</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Bspc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Del</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_</t>
+    </r>
+  </si>
+  <si>
+    <t>Bri +</t>
+  </si>
+  <si>
+    <t>Bri -</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gui
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gui
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Esc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LShft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CapW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>RShft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CapL</t>
+    </r>
+  </si>
+  <si>
+    <t>Bri Auto</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>PrtScn</t>
+  </si>
+  <si>
+    <t>Scroll Lock</t>
+  </si>
+  <si>
+    <t>Pause Break</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LGui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAlt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LCtrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LShft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LGui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LAlt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LCtrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>LShft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Lower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+→</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mouse
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
       <t>Bspc</t>
     </r>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">World
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Number</t>
+      <t>Cursor</t>
     </r>
     <r>
       <rPr>
@@ -690,53 +1122,432 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Del</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Function
+      <t>Tab</t>
+    </r>
+  </si>
+  <si>
+    <t>Combos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Shft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Shft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+l</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+;</t>
+    </r>
+  </si>
+  <si>
+    <t>word →
+select
+extend</t>
+  </si>
+  <si>
+    <t>word ←
+select
+extend</t>
+  </si>
+  <si>
+    <t>line ↓
+select
+extend</t>
+  </si>
+  <si>
+    <t>line ↑
+select
+extend</t>
+  </si>
+  <si>
+    <t>Win
+SelAll</t>
+  </si>
+  <si>
+    <t>Alt
+Save</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Shft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+↓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+↑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+→</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+^</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Shft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Win</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Win
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Esc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">World
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Tab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mouse
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Enter</t>
-    </r>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <t>R
+Gui</t>
+  </si>
+  <si>
+    <t>R
+Alt</t>
+  </si>
+  <si>
+    <t>R
+Ctrl</t>
+  </si>
+  <si>
+    <t>L
+Gui</t>
+  </si>
+  <si>
+    <t>L
+Ctrl</t>
+  </si>
+  <si>
+    <t>L
+Alt</t>
+  </si>
+  <si>
+    <t>Left Click</t>
+  </si>
+  <si>
+    <t>Right Click</t>
+  </si>
+  <si>
+    <t>Middle Click</t>
+  </si>
+  <si>
+    <t>Wheel Up</t>
+  </si>
+  <si>
+    <t>Wheel Down</t>
   </si>
   <si>
     <r>
@@ -746,7 +1557,7 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Ctrl</t>
+      <t>Symbol</t>
     </r>
     <r>
       <rPr>
@@ -767,28 +1578,7 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Alt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-Enter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Alt</t>
+      <t>World</t>
     </r>
     <r>
       <rPr>
@@ -809,7 +1599,28 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Ctrl</t>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>Function</t>
     </r>
     <r>
       <rPr>
@@ -823,335 +1634,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_</t>
-    </r>
-  </si>
-  <si>
-    <t>Bri +</t>
-  </si>
-  <si>
-    <t>Bri -</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gui
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Tab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gui
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Esc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
--</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LShft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-CapW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>RShft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-CapL</t>
-    </r>
-  </si>
-  <si>
-    <t>Bri Auto</t>
-  </si>
-  <si>
-    <t>Insert</t>
-  </si>
-  <si>
-    <t>PrtScn</t>
-  </si>
-  <si>
-    <t>Scroll Lock</t>
-  </si>
-  <si>
-    <t>Pause Break</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LGui</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-c</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LAlt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LCtrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-e</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LShft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LGui</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LAlt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LCtrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-t</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>LShft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-→</t>
-    </r>
+    <t>sq,y</t>
+  </si>
+  <si>
+    <t>q,y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,8 +1694,21 @@
       <name val="JetBrainsMono NF"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="JetBrainsMono NF"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,8 +1721,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1302,11 +1862,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1339,9 +2214,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1399,12 +2271,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC9C9"/>
+      <color rgb="FFFF7D7D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1733,42 +2751,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48897757-E499-41FD-9C0A-A7FADA24281B}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
     <sheetView workbookViewId="2">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1790,25 +2808,25 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="53" t="s">
         <v>51</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -1833,25 +2851,25 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="49" t="s">
         <v>92</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>62</v>
+      <c r="Q3" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -1876,25 +2894,25 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="51" t="s">
         <v>93</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -1919,25 +2937,25 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="50" t="s">
         <v>94</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="11" t="s">
         <v>84</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -1962,25 +2980,25 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="49" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="11" t="s">
         <v>99</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="56" t="s">
         <v>30</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -2005,25 +3023,25 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="50" t="s">
         <v>96</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="11" t="s">
         <v>100</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="57" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -2048,25 +3066,25 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="48" t="s">
         <v>97</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="11" t="s">
         <v>89</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="55" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -2091,25 +3109,25 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="51" t="s">
         <v>98</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="11" t="s">
         <v>90</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="52" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -2140,11 +3158,11 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="54" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2173,19 +3191,21 @@
         <v>102</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="O11" s="10"/>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="54" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2212,19 +3232,21 @@
         <v>103</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="55" t="s">
         <v>54</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2251,19 +3273,21 @@
         <v>104</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="48" t="s">
         <v>91</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -2290,19 +3314,21 @@
         <v>105</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="O14" s="10"/>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="47" t="s">
         <v>86</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -2327,7 +3353,7 @@
         <v>88</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2348,11 +3374,11 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -2373,11 +3399,11 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="47" t="s">
         <v>87</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -2387,15 +3413,1637 @@
     <row r="20" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69C8B9E-E1FA-4F32-BD2C-44942C748EE3}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="B6" sqref="B6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB6C1B-7F00-4934-83E6-1DC8F70C15DD}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACEB29-1B48-4642-B610-7487B93E511A}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB675F-F7BD-4B0C-B3AE-BBBAA063EA48}">
   <dimension ref="A1:S95"/>
   <sheetViews>
@@ -2406,7 +5054,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,16 +5103,16 @@
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2539,16 +5187,16 @@
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -2823,12 +5471,12 @@
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2917,18 +5565,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2944,10 +5594,10 @@
       <c r="N3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -2956,25 +5606,27 @@
       <c r="R3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3"/>
@@ -2984,28 +5636,28 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>72</v>
+      <c r="O4" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>174</v>
+      <c r="A5" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>64</v>
@@ -3013,41 +5665,41 @@
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="33" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -3056,13 +5708,13 @@
       <c r="R5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="14" t="s">
-        <v>175</v>
+      <c r="S5" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>102</v>
@@ -3073,28 +5725,28 @@
       <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>189</v>
+      <c r="E6" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>161</v>
+      <c r="G6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>158</v>
+      <c r="K6" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
@@ -3110,7 +5762,7 @@
         <v>82</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,7 +5828,9 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3214,12 +5868,12 @@
       <c r="R10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3257,12 +5911,12 @@
       <c r="R11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
@@ -3300,7 +5954,9 @@
       <c r="R12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -3337,527 +5993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F6B1D-C091-41E9-877D-9E2F9C904946}">
-  <dimension ref="A1:S13"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S13" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DBB973-D495-41E4-8B59-05A8D07D496E}">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3904,15 +6053,15 @@
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="3"/>
@@ -3922,40 +6071,38 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="O3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G4" s="3"/>
@@ -3965,7 +6112,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>116</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -3980,45 +6127,43 @@
       <c r="R4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="27" t="s">
         <v>117</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="16" t="s">
         <v>109</v>
       </c>
       <c r="S5" s="4"/>
@@ -4030,20 +6175,20 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="14" t="s">
-        <v>137</v>
+      <c r="G6" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>141</v>
+      <c r="L6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
@@ -4182,18 +6327,545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C9E2DA-5177-49CC-9DDF-31367CFDE497}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13989CA9-7361-43CC-86B7-F4B85357BA89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC6401E-20C7-4E3A-B94A-63BA25DA8C9F}">
   <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,19 +6891,13 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4239,39 +6905,31 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4280,41 +6938,41 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="O3" s="4">
-        <v>7</v>
-      </c>
-      <c r="P3" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>9</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4323,116 +6981,116 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="4">
-        <v>4</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>6</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>3</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>94</v>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>82</v>
+      <c r="R6" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="S6" s="4"/>
     </row>
@@ -4471,6 +7129,1229 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F6B1D-C091-41E9-877D-9E2F9C904946}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="R5" sqref="R5:S5"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A36AD7-E3E7-4BAB-8976-8EC442D9D3BE}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="K5" sqref="K5:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13989CA9-7361-43CC-86B7-F4B85357BA89}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="O6" sqref="O6:R6"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="4">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>9</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="4" t="s">
         <v>92</v>
       </c>
@@ -4570,9 +8451,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="M13" s="13"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
         <v>89</v>
@@ -4629,7 +8508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD38700-C973-4C14-B2A8-B382E1D5F373}">
   <dimension ref="A1:S95"/>
   <sheetViews>
@@ -4678,23 +8557,23 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4725,22 +8604,22 @@
         <v>10</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>136</v>
+      <c r="B4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
@@ -4764,7 +8643,7 @@
         <v>11</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4778,14 +8657,14 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>169</v>
+      <c r="K5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="4" t="s">
@@ -4801,7 +8680,7 @@
         <v>12</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4812,32 +8691,32 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
-        <v>137</v>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>146</v>
+      <c r="L6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>180</v>
+      <c r="O6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="S6" s="4"/>
     </row>
@@ -5006,1357 +8885,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69C8B9E-E1FA-4F32-BD2C-44942C748EE3}">
-  <dimension ref="A1:S95"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB6C1B-7F00-4934-83E6-1DC8F70C15DD}">
-  <dimension ref="A1:S95"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACEB29-1B48-4642-B610-7487B93E511A}">
-  <dimension ref="A1:S95"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,11 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kevin\Code\zmk-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF75ED-E8CB-4B30-B41F-8F9D356EEA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E44E1-5397-49CB-8E4D-981725FC6C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="4935" windowWidth="23865" windowHeight="17145" xr2:uid="{86B09F24-D561-4E71-AA8E-B26A7FDADDC6}"/>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{439D6C08-8549-4FEE-B020-8BDFC516D8C4}"/>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="4" xr2:uid="{A187CE12-F0FD-4371-9DA3-865F4351A76F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{86B09F24-D561-4E71-AA8E-B26A7FDADDC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="3" xr2:uid="{439D6C08-8549-4FEE-B020-8BDFC516D8C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="7" r:id="rId1"/>
@@ -26,7 +25,6 @@
     <sheet name="VimSymbol" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="208">
   <si>
     <t>F1</t>
   </si>
@@ -502,27 +500,6 @@
   </si>
   <si>
     <t>Bri -</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
--</t>
-    </r>
   </si>
   <si>
     <r>
@@ -752,10 +729,6 @@
 extend</t>
   </si>
   <si>
-    <t>Alt
-Save</t>
-  </si>
-  <si>
     <t>Quit</t>
   </si>
   <si>
@@ -1221,6 +1194,24 @@
     </r>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>SelAll</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>ShNum</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1228,54 +1219,12 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Lower</t>
+      <t xml:space="preserve">
+Space</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-b</t>
-    </r>
-  </si>
-  <si>
-    <t>Shift
-Space</t>
-  </si>
-  <si>
-    <t>Ctrl
-Bspc</t>
-  </si>
-  <si>
-    <t>Win
-All</t>
-  </si>
-  <si>
-    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1855,9 +1804,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1888,16 +1834,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1989,7 +1929,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,22 +1947,28 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2368,39 +2314,36 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
       <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
-    <sheetView workbookViewId="2">
-      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2422,25 +2365,25 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="36" t="s">
         <v>51</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -2465,7 +2408,7 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="32" t="s">
         <v>92</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -2476,14 +2419,14 @@
         <v>82</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -2508,7 +2451,7 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="34" t="s">
         <v>93</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -2519,14 +2462,14 @@
         <v>83</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -2551,7 +2494,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="33" t="s">
         <v>94</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -2562,14 +2505,14 @@
         <v>84</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2594,7 +2537,7 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="32" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="11" t="s">
@@ -2605,14 +2548,14 @@
         <v>99</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="39" t="s">
         <v>30</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -2637,7 +2580,7 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="33" t="s">
         <v>96</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -2648,14 +2591,14 @@
         <v>100</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="40" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -2680,25 +2623,25 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="31" t="s">
         <v>97</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="11" t="s">
         <v>89</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="38" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -2723,7 +2666,7 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="34" t="s">
         <v>98</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -2734,14 +2677,14 @@
         <v>90</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="35" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -2772,11 +2715,11 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="37" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2805,7 +2748,7 @@
         <v>102</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="11" t="s">
@@ -2815,11 +2758,11 @@
         <v>74</v>
       </c>
       <c r="O11" s="10"/>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2846,7 +2789,7 @@
         <v>103</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="11" t="s">
@@ -2856,11 +2799,11 @@
         <v>74</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="38" t="s">
         <v>54</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2887,7 +2830,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="11" t="s">
@@ -2897,11 +2840,11 @@
         <v>74</v>
       </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="31" t="s">
         <v>91</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -2928,7 +2871,7 @@
         <v>105</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11" t="s">
@@ -2938,11 +2881,11 @@
         <v>74</v>
       </c>
       <c r="O14" s="10"/>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="30" t="s">
         <v>86</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -2988,7 +2931,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3013,11 +2956,11 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="30" t="s">
         <v>87</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -3028,27 +2971,27 @@
     <row r="21" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="A23" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -3073,7 +3016,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="7"/>
@@ -3085,13 +3028,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="28" t="s">
         <v>111</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="49" t="s">
-        <v>186</v>
+      <c r="O25" s="46" t="s">
+        <v>184</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -3112,11 +3055,11 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="51" t="s">
-        <v>189</v>
+      <c r="Q26" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -3136,8 +3079,8 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="60" t="s">
-        <v>187</v>
+      <c r="O27" s="57" t="s">
+        <v>185</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -3161,8 +3104,8 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="52" t="s">
-        <v>190</v>
+      <c r="Q28" s="49" t="s">
+        <v>188</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -3182,8 +3125,8 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="63" t="s">
-        <v>188</v>
+      <c r="O29" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -3312,10 +3255,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,17 +3395,17 @@
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>162</v>
+      <c r="E4" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>64</v>
@@ -3477,22 +3417,22 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="S4" s="32" t="s">
+      <c r="R4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="29" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3506,51 +3446,51 @@
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>184</v>
+      <c r="F5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3571,23 +3511,23 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
@@ -3603,7 +3543,7 @@
         <v>105</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3557,7 @@
         <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>94</v>
@@ -3793,10 +3733,10 @@
         <v>50</v>
       </c>
       <c r="R12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,10 +3781,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="S13" sqref="S13"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3987,17 +3924,17 @@
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4009,20 +3946,20 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>132</v>
@@ -4038,13 +3975,13 @@
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="13"/>
@@ -4054,13 +3991,13 @@
       <c r="K5" s="15"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -4069,7 +4006,7 @@
       <c r="R5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4111,7 +4048,7 @@
         <v>105</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,21 +4285,18 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="O6" sqref="O6:R6"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4372,19 +4306,19 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
     </row>
     <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4407,17 +4341,17 @@
       <c r="R2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="65"/>
+      <c r="S2" s="62"/>
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -4448,23 +4382,23 @@
       <c r="R3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="65"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>114</v>
@@ -4496,11 +4430,9 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="14" t="s">
         <v>112</v>
       </c>
@@ -4510,24 +4442,22 @@
       <c r="F5" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>19</v>
-      </c>
+      <c r="K5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="73"/>
       <c r="N5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="4">
-        <v>1</v>
+      <c r="O5" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="P5" s="4">
         <v>2</v>
@@ -4538,7 +4468,7 @@
       <c r="R5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="65"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4557,30 +4487,436 @@
         <v>82</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="62"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="62"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="62"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="P12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="Q12" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="R12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="62"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD38700-C973-4C14-B2A8-B382E1D5F373}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="64"/>
+      <c r="O5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" s="66"/>
+      <c r="O6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="S6" s="13" t="s">
         <v>129</v>
       </c>
@@ -4620,15 +4956,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,15 +4977,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4670,15 +4998,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,15 +5019,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4719,7 +5039,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -4768,26 +5088,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD38700-C973-4C14-B2A8-B382E1D5F373}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC6401E-20C7-4E3A-B94A-63BA25DA8C9F}">
   <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4797,19 +5116,19 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4817,32 +5136,32 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4850,40 +5169,42 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="65"/>
+      <c r="N3" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="62"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4891,96 +5212,116 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="N4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="13" t="s">
-        <v>129</v>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>155</v>
+      <c r="O6" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>129</v>
@@ -5153,26 +5494,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC6401E-20C7-4E3A-B94A-63BA25DA8C9F}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB6C1B-7F00-4934-83E6-1DC8F70C15DD}">
   <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -5182,19 +5532,41 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="O1" s="2">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5202,32 +5574,36 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -5235,41 +5611,39 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="65"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="6"/>
+      <c r="O3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>175</v>
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -5278,120 +5652,94 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="N4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="65"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>53</v>
+        <v>124</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
+      <c r="K6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>129</v>
-      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -5439,8 +5787,12 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5450,19 +5802,39 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -5470,19 +5842,39 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
@@ -5492,10 +5884,18 @@
       <c r="L12" s="4"/>
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,13 +5905,25 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -5560,18 +5972,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB6C1B-7F00-4934-83E6-1DC8F70C15DD}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACEB29-1B48-4642-B610-7487B93E511A}">
   <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
       <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,16 +6131,16 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>73</v>
@@ -6041,487 +6450,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACEB29-1B48-4642-B610-7487B93E511A}">
-  <dimension ref="A1:S95"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB675F-F7BD-4B0C-B3AE-BBBAA063EA48}">
   <dimension ref="A1:S95"/>
@@ -6531,9 +6459,6 @@
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
       <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,11 +8,11 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kevin\Code\zmk-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF75ED-E8CB-4B30-B41F-8F9D356EEA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1562A-4936-4C52-9CA9-95890D6A5BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="4935" windowWidth="23865" windowHeight="17145" xr2:uid="{86B09F24-D561-4E71-AA8E-B26A7FDADDC6}"/>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{439D6C08-8549-4FEE-B020-8BDFC516D8C4}"/>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="4" xr2:uid="{A187CE12-F0FD-4371-9DA3-865F4351A76F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{86B09F24-D561-4E71-AA8E-B26A7FDADDC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="3" xr2:uid="{439D6C08-8549-4FEE-B020-8BDFC516D8C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="5" xr2:uid="{A187CE12-F0FD-4371-9DA3-865F4351A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="VimSymbol" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="208">
   <si>
     <t>F1</t>
   </si>
@@ -502,27 +501,6 @@
   </si>
   <si>
     <t>Bri -</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
--</t>
-    </r>
   </si>
   <si>
     <r>
@@ -752,10 +730,6 @@
 extend</t>
   </si>
   <si>
-    <t>Alt
-Save</t>
-  </si>
-  <si>
     <t>Quit</t>
   </si>
   <si>
@@ -1221,6 +1195,24 @@
     </r>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>SelAll</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrainsMono NF"/>
+        <family val="3"/>
+      </rPr>
+      <t>ShNum</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1228,54 +1220,12 @@
         <rFont val="JetBrainsMono NF"/>
         <family val="3"/>
       </rPr>
-      <t>Lower</t>
+      <t xml:space="preserve">
+Space</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t>Lower</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrainsMono NF"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-b</t>
-    </r>
-  </si>
-  <si>
-    <t>Shift
-Space</t>
-  </si>
-  <si>
-    <t>Ctrl
-Bspc</t>
-  </si>
-  <si>
-    <t>Win
-All</t>
-  </si>
-  <si>
-    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1855,9 +1805,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1888,16 +1835,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1989,7 +1930,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,22 +1948,28 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2368,9 +2315,9 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
     <sheetView workbookViewId="2">
@@ -2380,27 +2327,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2422,25 +2369,25 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="36" t="s">
         <v>51</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -2465,7 +2412,7 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="32" t="s">
         <v>92</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -2476,14 +2423,14 @@
         <v>82</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -2508,7 +2455,7 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="34" t="s">
         <v>93</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -2519,14 +2466,14 @@
         <v>83</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="11" t="s">
         <v>53</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -2551,7 +2498,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="33" t="s">
         <v>94</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -2562,14 +2509,14 @@
         <v>84</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2594,7 +2541,7 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="32" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="11" t="s">
@@ -2605,14 +2552,14 @@
         <v>99</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="39" t="s">
         <v>30</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -2637,7 +2584,7 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="33" t="s">
         <v>96</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -2648,14 +2595,14 @@
         <v>100</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="40" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -2680,25 +2627,25 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="31" t="s">
         <v>97</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="11" t="s">
         <v>89</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="38" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -2723,7 +2670,7 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="34" t="s">
         <v>98</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -2734,14 +2681,14 @@
         <v>90</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="35" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -2772,11 +2719,11 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="37" t="s">
         <v>40</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2805,7 +2752,7 @@
         <v>102</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="11" t="s">
@@ -2815,11 +2762,11 @@
         <v>74</v>
       </c>
       <c r="O11" s="10"/>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2846,7 +2793,7 @@
         <v>103</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="11" t="s">
@@ -2856,11 +2803,11 @@
         <v>74</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="38" t="s">
         <v>54</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2887,7 +2834,7 @@
         <v>104</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="11" t="s">
@@ -2897,11 +2844,11 @@
         <v>74</v>
       </c>
       <c r="O13" s="10"/>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="31" t="s">
         <v>91</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -2928,7 +2875,7 @@
         <v>105</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11" t="s">
@@ -2938,11 +2885,11 @@
         <v>74</v>
       </c>
       <c r="O14" s="10"/>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="30" t="s">
         <v>86</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -2988,7 +2935,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3013,11 +2960,11 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="30" t="s">
         <v>87</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -3028,27 +2975,27 @@
     <row r="21" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="A23" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -3073,7 +3020,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="7"/>
@@ -3085,13 +3032,13 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="28" t="s">
         <v>111</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="49" t="s">
-        <v>186</v>
+      <c r="O25" s="46" t="s">
+        <v>184</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -3112,11 +3059,11 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="51" t="s">
-        <v>189</v>
+      <c r="Q26" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -3136,8 +3083,8 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="60" t="s">
-        <v>187</v>
+      <c r="O27" s="57" t="s">
+        <v>185</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -3161,8 +3108,8 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="52" t="s">
-        <v>190</v>
+      <c r="Q28" s="49" t="s">
+        <v>188</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -3182,8 +3129,8 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="63" t="s">
-        <v>188</v>
+      <c r="O29" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -3312,7 +3259,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
       <selection activeCell="J9" sqref="J9"/>
@@ -3455,17 +3402,17 @@
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>162</v>
+      <c r="E4" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>64</v>
@@ -3477,22 +3424,22 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="S4" s="32" t="s">
+      <c r="R4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="29" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3506,51 +3453,51 @@
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>184</v>
+      <c r="F5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3571,23 +3518,23 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
@@ -3603,7 +3550,7 @@
         <v>105</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3793,10 +3740,10 @@
         <v>50</v>
       </c>
       <c r="R12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,7 +3788,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
       <selection activeCell="K8" sqref="K8"/>
@@ -3987,17 +3934,17 @@
       <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4009,20 +3956,20 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="P4" s="25" t="s">
+      <c r="O4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>132</v>
@@ -4038,13 +3985,13 @@
       <c r="C5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="13"/>
@@ -4054,13 +4001,13 @@
       <c r="K5" s="15"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -4069,7 +4016,7 @@
       <c r="R5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4111,7 +4058,7 @@
         <v>105</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,8 +4295,8 @@
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
-      <selection activeCell="O6" sqref="O6:R6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="1">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
       <selection activeCell="A4" sqref="A4"/>
@@ -4358,11 +4305,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4372,19 +4319,19 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
     </row>
     <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4407,17 +4354,17 @@
       <c r="R2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="65"/>
+      <c r="S2" s="62"/>
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -4448,23 +4395,23 @@
       <c r="R3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="65"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>114</v>
@@ -4496,11 +4443,9 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="14" t="s">
         <v>112</v>
       </c>
@@ -4510,19 +4455,17 @@
       <c r="F5" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>19</v>
-      </c>
+      <c r="K5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="73"/>
       <c r="N5" s="5" t="s">
         <v>88</v>
       </c>
@@ -4538,7 +4481,7 @@
       <c r="R5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="65"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -4557,30 +4500,439 @@
         <v>82</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="62"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="62"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="62"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="P12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="Q12" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="R12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="62"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD38700-C973-4C14-B2A8-B382E1D5F373}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+    </row>
+    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="64"/>
+      <c r="O5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" s="66"/>
+      <c r="O6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="S6" s="13" t="s">
         <v>129</v>
       </c>
@@ -4620,407 +4972,6 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD38700-C973-4C14-B2A8-B382E1D5F373}">
-  <dimension ref="A1:S95"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -5161,18 +5112,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="2">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -5182,19 +5133,19 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
     </row>
     <row r="2" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5202,12 +5153,12 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -5222,7 +5173,7 @@
       <c r="D3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -5235,38 +5186,38 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="P3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="P3" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>165</v>
+      <c r="Q3" s="43" t="s">
+        <v>164</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="65"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>175</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>98</v>
@@ -5278,20 +5229,20 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>179</v>
+      <c r="R4" s="59" t="s">
+        <v>177</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>51</v>
@@ -5326,25 +5277,25 @@
         <v>23</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="53" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="Q5" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="65"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -5366,24 +5317,24 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="41" t="s">
         <v>110</v>
       </c>
       <c r="R6" s="13" t="s">
